--- a/src/demo/zxxt_06_fm_excel_xlsx.w3mi.data.xlsx
+++ b/src/demo/zxxt_06_fm_excel_xlsx.w3mi.data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\MoldaB\Desktop\docu_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\MoldaB\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>{R-TITLE}</t>
   </si>
@@ -72,7 +72,13 @@
     <t>Raw path</t>
   </si>
   <si>
-    <t>Sum change last green elements</t>
+    <t>{R-T-SUM;func=SUM}</t>
+  </si>
+  <si>
+    <t>Sum by FM change last green elements</t>
+  </si>
+  <si>
+    <t>Sum staticly using ;func=SUM</t>
   </si>
 </sst>
 </file>
@@ -658,7 +664,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -671,9 +677,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1045,10 +1048,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1058,10 +1061,10 @@
     <col min="5" max="5" width="50.7109375" customWidth="1" collapsed="1"/>
     <col min="6" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="50.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" customWidth="1"/>
+    <col min="9" max="10" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1069,12 +1072,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -1090,17 +1093,20 @@
       <c r="F3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1130,6 +1136,9 @@
       <c r="I4" s="3" t="e">
         <f>IF(G$4="X",SUM(I_),VALUE(D$4))</f>
         <v>#VALUE!</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
